--- a/xlsx.helper.template.xlsx
+++ b/xlsx.helper.template.xlsx
@@ -100,13 +100,13 @@
     <t>Результаты инспекции</t>
   </si>
   <si>
-    <t>[[results|repeat-rows:A25:B27]]{{text}}</t>
+    <t>[[results|repeat-rows:3]]{{text}}</t>
   </si>
   <si>
     <t>{{answerText}}</t>
   </si>
   <si>
-    <t>{{measuringName}} : {{measuringResult}}</t>
+    <t>Замер: {{measureValue}}</t>
   </si>
   <si>
     <t>{{comment}}</t>
@@ -115,13 +115,14 @@
     <t>Фото инспекции</t>
   </si>
   <si>
-    <t>[[steps|repeat-rows:A31:B33]]{{stepText}}</t>
+    <t>[[steps|repeat-rows:2]]{{stepText}}</t>
   </si>
   <si>
-    <t>[[media|block:A32:A33|tile:2]]{{fileName|image}}</t>
+    <t>[[media|repeat-rows:1]]{{fileName|image}}</t>
   </si>
   <si>
-    <t>Дата: {{created|date}}, GPS: {{gpsPos}}</t>
+    <t>Дата: {{created|date}}
+GPS: {{gpsPos}}</t>
   </si>
   <si>
     <t>Приемная комиссия</t>
@@ -137,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -179,12 +180,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border/>
     <border>
       <bottom style="medium">
@@ -342,9 +337,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="medium">
@@ -353,43 +345,12 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -454,10 +415,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1441,11 +1399,13 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="87.0" customHeight="1">
+    <row r="32" ht="147.0" customHeight="1">
       <c r="A32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1472,9 +1432,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1530,8 +1488,9 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1558,9 +1517,8 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1587,8 +1545,12 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1615,12 +1577,10 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="26" t="s">
-        <v>38</v>
+      <c r="A38" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="B38" s="28"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1647,10 +1607,8 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="29"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1677,8 +1635,8 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1705,8 +1663,8 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1733,8 +1691,8 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1762,7 +1720,7 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1789,8 +1747,8 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -28388,45 +28346,17 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-      <c r="Y994" s="1"/>
-      <c r="Z994" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A25:A27"/>
   </mergeCells>
   <printOptions/>

--- a/xlsx.helper.template.xlsx
+++ b/xlsx.helper.template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ОТЧЕТ ОБ ИНСПЕКЦИИ ОБЪЕКТА ОСМОТРА</t>
   </si>
@@ -115,10 +115,13 @@
     <t>Фото инспекции</t>
   </si>
   <si>
-    <t>[[steps|repeat-rows:2]]{{stepText}}</t>
+    <t>[[steps|repeat-rows:3]]</t>
   </si>
   <si>
-    <t>[[media|repeat-rows:1]]{{fileName|image}}</t>
+    <t>{{stepText}}</t>
+  </si>
+  <si>
+    <t>[[media|repeat-rows]]{{fileName|image}}</t>
   </si>
   <si>
     <t>Дата: {{created|date}}
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -411,6 +414,9 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1342,7 +1348,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1370,10 +1378,10 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>34</v>
+      <c r="A31" s="23" t="s">
+        <v>35</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1400,11 +1408,11 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" ht="147.0" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>35</v>
+      <c r="A32" s="25" t="s">
+        <v>36</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>36</v>
+      <c r="B32" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1489,7 +1497,7 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1545,11 +1553,11 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>38</v>
+      <c r="A37" s="26" t="s">
+        <v>39</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>39</v>
+      <c r="B37" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1577,10 +1585,10 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1607,8 +1615,8 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1635,8 +1643,8 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1663,8 +1671,8 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1691,8 +1699,8 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1719,8 +1727,8 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
